--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>41.15454199270641</v>
+        <v>45.49094450856197</v>
       </c>
     </row>
     <row r="3">
@@ -386,137 +386,57 @@
         </is>
       </c>
       <c r="B3">
-        <v>18.07708524547392</v>
+        <v>28.76113873593541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TravelTime</t>
+          <t>SSTmean</t>
         </is>
       </c>
       <c r="B4">
-        <v>10.80727004050226</v>
+        <v>9.905547798344751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ReefMinDist</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B5">
-        <v>6.558688526829701</v>
+        <v>7.111181540701119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Chla</t>
         </is>
       </c>
       <c r="B6">
-        <v>3.901655715826635</v>
+        <v>4.336640167139811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SSTmean</t>
+          <t>TravelTime</t>
         </is>
       </c>
       <c r="B7">
-        <v>3.799108868794429</v>
+        <v>2.776965617482637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LandMinDist</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B8">
-        <v>3.222289672134826</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Chla</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>2.758576557871267</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>seafloorTemp</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>2.66402900186877</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SSTmax</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>1.940244207491827</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EastwardVelocity</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>1.820787995515994</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SummitAreaKm2</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>1.102928533728204</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NorthwardVelocity</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>1.098558277974922</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SuspendedParticulateMatter</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>1.092557021601835</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>0.001678341678995424</v>
+        <v>1.617581631834304</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>45.49094450856197</v>
+        <v>43.72611575221389</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>28.76113873593541</v>
+        <v>29.84221909109181</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>9.905547798344751</v>
+        <v>10.55187781261446</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>7.111181540701119</v>
+        <v>7.437509928722128</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>4.336640167139811</v>
+        <v>3.863679187601362</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.776965617482637</v>
+        <v>2.637345521415971</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.617581631834304</v>
+        <v>1.941252706340379</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>43.72611575221389</v>
+        <v>45.40435219059182</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>29.84221909109181</v>
+        <v>28.61099356241146</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>10.55187781261446</v>
+        <v>10.27521827817434</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>7.437509928722128</v>
+        <v>7.453536171295117</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>3.863679187601362</v>
+        <v>3.827514811048076</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.637345521415971</v>
+        <v>2.553150088197062</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.941252706340379</v>
+        <v>1.875234898282131</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_richness_tot_poisson.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>45.40435219059182</v>
+        <v>45.48165850083172</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>28.61099356241146</v>
+        <v>29.14359298898636</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>10.27521827817434</v>
+        <v>10.2492150563531</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>7.453536171295117</v>
+        <v>6.737806404501392</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>3.827514811048076</v>
+        <v>4.128183617122676</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.553150088197062</v>
+        <v>2.266875590221579</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.875234898282131</v>
+        <v>1.992667841983179</v>
       </c>
     </row>
   </sheetData>
